--- a/data/jornada_8_inicial.xlsx
+++ b/data/jornada_8_inicial.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Armada</t>
+          <t>Gonzo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Gonzo</t>
+          <t>Papu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Coquina</t>
+          <t>Armada</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -585,12 +585,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Papu</t>
+          <t>Kike</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Kike</t>
+          <t>Coquina</t>
         </is>
       </c>
       <c r="I4" t="n">
